--- a/Testing file/Book.xlsx
+++ b/Testing file/Book.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d5da8b4be149f9f/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intern\Documents\GitHub\Tringapps_internship\Testing file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{242DED60-4E10-402C-9468-1732A4023F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88C28EB2-60D2-4FEF-BC9D-F39656D62698}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC0217C-A6A2-46A5-8DB2-87A0AC67869E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="4">
   <si>
     <t>Tasks</t>
   </si>
@@ -52,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,18 +408,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A21" sqref="A21:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -444,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -452,7 +443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -460,11 +451,163 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
         <v>3</v>
       </c>
     </row>
